--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb2-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H2">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J2">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N2">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P2">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q2">
-        <v>25.94707337965156</v>
+        <v>25.89887960894</v>
       </c>
       <c r="R2">
-        <v>233.523660416864</v>
+        <v>233.08991648046</v>
       </c>
       <c r="S2">
-        <v>0.02129471486053075</v>
+        <v>0.02051007339236019</v>
       </c>
       <c r="T2">
-        <v>0.02129471486053075</v>
+        <v>0.0205100733923602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H3">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J3">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>79.438063</v>
       </c>
       <c r="O3">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P3">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q3">
-        <v>64.64613077650755</v>
+        <v>73.28092465428733</v>
       </c>
       <c r="R3">
-        <v>581.8151769885679</v>
+        <v>659.528321888586</v>
       </c>
       <c r="S3">
-        <v>0.05305495928499959</v>
+        <v>0.0580332881427285</v>
       </c>
       <c r="T3">
-        <v>0.05305495928499959</v>
+        <v>0.05803328814272851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H4">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J4">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N4">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P4">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q4">
-        <v>13.737435122904</v>
+        <v>14.26025847702667</v>
       </c>
       <c r="R4">
-        <v>123.636916106136</v>
+        <v>128.34232629324</v>
       </c>
       <c r="S4">
-        <v>0.01127428745342414</v>
+        <v>0.01129311199457768</v>
       </c>
       <c r="T4">
-        <v>0.01127428745342414</v>
+        <v>0.01129311199457768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +711,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H5">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J5">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N5">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O5">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P5">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q5">
-        <v>19.14888033064</v>
+        <v>22.07008855485333</v>
       </c>
       <c r="R5">
-        <v>172.33992297576</v>
+        <v>198.63079699368</v>
       </c>
       <c r="S5">
-        <v>0.01571545047000135</v>
+        <v>0.01747794278636199</v>
       </c>
       <c r="T5">
-        <v>0.01571545047000135</v>
+        <v>0.017477942786362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.441378666666667</v>
+        <v>2.767474</v>
       </c>
       <c r="H6">
-        <v>7.324135999999999</v>
+        <v>8.302422</v>
       </c>
       <c r="I6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="J6">
-        <v>0.1119936059016048</v>
+        <v>0.1192484523516842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N6">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O6">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P6">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q6">
-        <v>12.98186667383644</v>
+        <v>15.06957857358667</v>
       </c>
       <c r="R6">
-        <v>116.836800064528</v>
+        <v>135.62620716228</v>
       </c>
       <c r="S6">
-        <v>0.01065419383264897</v>
+        <v>0.0119340360356558</v>
       </c>
       <c r="T6">
-        <v>0.01065419383264897</v>
+        <v>0.0119340360356558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>38.657336</v>
       </c>
       <c r="I7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J7">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N7">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O7">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P7">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q7">
-        <v>136.9505882815182</v>
+        <v>120.5891113540534</v>
       </c>
       <c r="R7">
-        <v>1232.555294533664</v>
+        <v>1085.30200218648</v>
       </c>
       <c r="S7">
-        <v>0.112395093071419</v>
+        <v>0.09549801232858651</v>
       </c>
       <c r="T7">
-        <v>0.112395093071419</v>
+        <v>0.09549801232858653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>38.657336</v>
       </c>
       <c r="I8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J8">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>79.438063</v>
       </c>
       <c r="O8">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P8">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q8">
         <v>341.2070991755742</v>
@@ -948,10 +948,10 @@
         <v>3070.863892580168</v>
       </c>
       <c r="S8">
-        <v>0.280028031640394</v>
+        <v>0.2702117910795515</v>
       </c>
       <c r="T8">
-        <v>0.280028031640394</v>
+        <v>0.2702117910795515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>38.657336</v>
       </c>
       <c r="I9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J9">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N9">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O9">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P9">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q9">
-        <v>72.50720703770399</v>
+        <v>66.39792621879111</v>
       </c>
       <c r="R9">
-        <v>652.5648633393361</v>
+        <v>597.58133596912</v>
       </c>
       <c r="S9">
-        <v>0.05950652995078207</v>
+        <v>0.05258244219096782</v>
       </c>
       <c r="T9">
-        <v>0.05950652995078208</v>
+        <v>0.05258244219096782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>38.657336</v>
       </c>
       <c r="I10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J10">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N10">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O10">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P10">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q10">
-        <v>101.06921839864</v>
+        <v>102.7616795213156</v>
       </c>
       <c r="R10">
-        <v>909.6229655877601</v>
+        <v>924.8551156918401</v>
       </c>
       <c r="S10">
-        <v>0.08294731954870857</v>
+        <v>0.0813799523658484</v>
       </c>
       <c r="T10">
-        <v>0.08294731954870858</v>
+        <v>0.08137995236584841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>38.657336</v>
       </c>
       <c r="I11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="J11">
-        <v>0.5911106037886134</v>
+        <v>0.5552388796954726</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N11">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O11">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P11">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q11">
-        <v>68.51926041756977</v>
+        <v>70.16624333207112</v>
       </c>
       <c r="R11">
-        <v>616.673343758128</v>
+        <v>631.49618998864</v>
       </c>
       <c r="S11">
-        <v>0.05623362957730972</v>
+        <v>0.05556668173051843</v>
       </c>
       <c r="T11">
-        <v>0.05623362957730974</v>
+        <v>0.05556668173051844</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H12">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I12">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J12">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.62804133333333</v>
+        <v>9.358310000000001</v>
       </c>
       <c r="N12">
-        <v>31.884124</v>
+        <v>28.07493</v>
       </c>
       <c r="O12">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="P12">
-        <v>0.1901422379349035</v>
+        <v>0.1719944618809179</v>
       </c>
       <c r="Q12">
-        <v>68.78586322192135</v>
+        <v>0.3203505484833334</v>
       </c>
       <c r="R12">
-        <v>619.0727689972921</v>
+        <v>2.88315493635</v>
       </c>
       <c r="S12">
-        <v>0.05645243000295376</v>
+        <v>0.0002536948840986919</v>
       </c>
       <c r="T12">
-        <v>0.05645243000295376</v>
+        <v>0.000253694884098692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H13">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I13">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J13">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>79.438063</v>
       </c>
       <c r="O13">
-        <v>0.4737320390559845</v>
+        <v>0.4866586274141183</v>
       </c>
       <c r="P13">
-        <v>0.4737320390559847</v>
+        <v>0.4866586274141184</v>
       </c>
       <c r="Q13">
-        <v>171.3773204536644</v>
+        <v>0.9064324310872223</v>
       </c>
       <c r="R13">
-        <v>1542.395884082979</v>
+        <v>8.157891879785</v>
       </c>
       <c r="S13">
-        <v>0.140649048130591</v>
+        <v>0.0007178301134075698</v>
       </c>
       <c r="T13">
-        <v>0.140649048130591</v>
+        <v>0.00071783011340757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H14">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I14">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J14">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.626917</v>
+        <v>5.152806666666667</v>
       </c>
       <c r="N14">
-        <v>16.880751</v>
+        <v>15.45842</v>
       </c>
       <c r="O14">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627494</v>
       </c>
       <c r="P14">
-        <v>0.1006690280454894</v>
+        <v>0.09470237786627496</v>
       </c>
       <c r="Q14">
-        <v>36.41803141178701</v>
+        <v>0.1763891602111111</v>
       </c>
       <c r="R14">
-        <v>327.7622827060831</v>
+        <v>1.5875024419</v>
       </c>
       <c r="S14">
-        <v>0.02988821064128316</v>
+        <v>0.0001396876882773671</v>
       </c>
       <c r="T14">
-        <v>0.02988821064128316</v>
+        <v>0.0001396876882773671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H15">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I15">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J15">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.84347</v>
+        <v>7.974813333333334</v>
       </c>
       <c r="N15">
-        <v>23.53041</v>
+        <v>23.92444</v>
       </c>
       <c r="O15">
-        <v>0.1403245332042314</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="P15">
-        <v>0.1403245332042315</v>
+        <v>0.146567460136225</v>
       </c>
       <c r="Q15">
-        <v>50.76380846517001</v>
+        <v>0.2729911517555556</v>
       </c>
       <c r="R15">
-        <v>456.87427618653</v>
+        <v>2.4569203658</v>
       </c>
       <c r="S15">
-        <v>0.04166176318552152</v>
+        <v>0.0002161896052074256</v>
       </c>
       <c r="T15">
-        <v>0.04166176318552152</v>
+        <v>0.0002161896052074257</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>6.472111000000001</v>
+        <v>0.03423166666666667</v>
       </c>
       <c r="H16">
-        <v>19.416333</v>
+        <v>0.102695</v>
       </c>
       <c r="I16">
-        <v>0.2968957903097819</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="J16">
-        <v>0.2968957903097818</v>
+        <v>0.001475017749550216</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.317432666666666</v>
+        <v>5.445246666666667</v>
       </c>
       <c r="N16">
-        <v>15.952298</v>
+        <v>16.33574</v>
       </c>
       <c r="O16">
-        <v>0.09513216175939113</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="P16">
-        <v>0.09513216175939115</v>
+        <v>0.1000770727024639</v>
       </c>
       <c r="Q16">
-        <v>34.41501445369267</v>
+        <v>0.1863998688111111</v>
       </c>
       <c r="R16">
-        <v>309.735130083234</v>
+        <v>1.6775988193</v>
       </c>
       <c r="S16">
-        <v>0.02824433834943244</v>
+        <v>0.0001476154585591617</v>
       </c>
       <c r="T16">
-        <v>0.02824433834943244</v>
+        <v>0.0001476154585591617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.520146</v>
+      </c>
+      <c r="H17">
+        <v>22.560438</v>
+      </c>
+      <c r="I17">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J17">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.358310000000001</v>
+      </c>
+      <c r="N17">
+        <v>28.07493</v>
+      </c>
+      <c r="O17">
+        <v>0.1719944618809179</v>
+      </c>
+      <c r="P17">
+        <v>0.1719944618809179</v>
+      </c>
+      <c r="Q17">
+        <v>70.37585751326</v>
+      </c>
+      <c r="R17">
+        <v>633.3827176193399</v>
+      </c>
+      <c r="S17">
+        <v>0.05573268127587248</v>
+      </c>
+      <c r="T17">
+        <v>0.0557326812758725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7.520146</v>
+      </c>
+      <c r="H18">
+        <v>22.560438</v>
+      </c>
+      <c r="I18">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J18">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>26.47935433333333</v>
+      </c>
+      <c r="N18">
+        <v>79.438063</v>
+      </c>
+      <c r="O18">
+        <v>0.4866586274141183</v>
+      </c>
+      <c r="P18">
+        <v>0.4866586274141184</v>
+      </c>
+      <c r="Q18">
+        <v>199.1286105723993</v>
+      </c>
+      <c r="R18">
+        <v>1792.157495151594</v>
+      </c>
+      <c r="S18">
+        <v>0.1576957180784308</v>
+      </c>
+      <c r="T18">
+        <v>0.1576957180784308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7.520146</v>
+      </c>
+      <c r="H19">
+        <v>22.560438</v>
+      </c>
+      <c r="I19">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J19">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.152806666666667</v>
+      </c>
+      <c r="N19">
+        <v>15.45842</v>
+      </c>
+      <c r="O19">
+        <v>0.09470237786627494</v>
+      </c>
+      <c r="P19">
+        <v>0.09470237786627496</v>
+      </c>
+      <c r="Q19">
+        <v>38.74985844310667</v>
+      </c>
+      <c r="R19">
+        <v>348.74872598796</v>
+      </c>
+      <c r="S19">
+        <v>0.03068713599245208</v>
+      </c>
+      <c r="T19">
+        <v>0.03068713599245209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.520146</v>
+      </c>
+      <c r="H20">
+        <v>22.560438</v>
+      </c>
+      <c r="I20">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J20">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>7.974813333333334</v>
+      </c>
+      <c r="N20">
+        <v>23.92444</v>
+      </c>
+      <c r="O20">
+        <v>0.146567460136225</v>
+      </c>
+      <c r="P20">
+        <v>0.146567460136225</v>
+      </c>
+      <c r="Q20">
+        <v>59.97176058941333</v>
+      </c>
+      <c r="R20">
+        <v>539.74584530472</v>
+      </c>
+      <c r="S20">
+        <v>0.04749337537880716</v>
+      </c>
+      <c r="T20">
+        <v>0.04749337537880718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.520146</v>
+      </c>
+      <c r="H21">
+        <v>22.560438</v>
+      </c>
+      <c r="I21">
+        <v>0.324037650203293</v>
+      </c>
+      <c r="J21">
+        <v>0.3240376502032931</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.445246666666667</v>
+      </c>
+      <c r="N21">
+        <v>16.33574</v>
+      </c>
+      <c r="O21">
+        <v>0.1000770727024639</v>
+      </c>
+      <c r="P21">
+        <v>0.1000770727024639</v>
+      </c>
+      <c r="Q21">
+        <v>40.94904993934666</v>
+      </c>
+      <c r="R21">
+        <v>368.54144945412</v>
+      </c>
+      <c r="S21">
+        <v>0.03242873947773053</v>
+      </c>
+      <c r="T21">
+        <v>0.03242873947773054</v>
       </c>
     </row>
   </sheetData>
